--- a/individual_results/avey/271.xlsx
+++ b/individual_results/avey/271.xlsx
@@ -570,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -713,12 +713,10 @@
         <v>0.5714285714285715</v>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
@@ -734,7 +732,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
@@ -778,12 +776,10 @@
         <v>0.7692307692307692</v>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>0.4545454545454545</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
@@ -799,7 +795,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="P5" t="n">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
@@ -846,13 +842,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1377057761880933</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.41311732856428</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -870,7 +866,7 @@
         <v>0.8262346571285599</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3622942238119067</v>
+        <v>0.9180385079206221</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -925,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -943,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="b">
         <v>0</v>
@@ -1016,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
@@ -1089,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="b">
         <v>0</v>
@@ -1138,7 +1134,7 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
@@ -1154,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
@@ -1205,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>1.5</v>
@@ -1223,7 +1219,7 @@
         <v>0.5</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="n">
         <v>2.5</v>
